--- a/Answer/2b答案/2b答案填表格.xlsx
+++ b/Answer/2b答案/2b答案填表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FDFDCE-D311-4D46-B334-C5F44F79EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01C086-50CB-41EE-B6FE-C0B61CA75BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1090,11 +1090,14 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
+      <c r="E4" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
       <c r="F4" s="5">
         <v>-54.390639999999998</v>
       </c>
       <c r="G4" s="5">
-        <v>-49.907400000000003</v>
+        <v>-49.907359999999997</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -1110,6 +1113,9 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
+      <c r="E5" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="F5" s="5">
         <v>0.62015999999999993</v>
       </c>
@@ -1133,11 +1139,14 @@
       <c r="D6" s="3">
         <v>4.1497000000000002</v>
       </c>
+      <c r="E6" s="3">
+        <v>0.94869999999999999</v>
+      </c>
       <c r="F6" s="5">
         <v>-18.756466666666672</v>
       </c>
       <c r="G6" s="5">
-        <v>-16.056000000000001</v>
+        <v>-16.056033333333328</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
@@ -1153,11 +1162,14 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
+      <c r="E7" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
       <c r="F7" s="5">
         <v>12.779925</v>
       </c>
       <c r="G7" s="5">
-        <v>10.019629999999999</v>
+        <v>10.019625</v>
       </c>
       <c r="H7" s="5">
         <v>4</v>
@@ -1176,11 +1188,14 @@
       <c r="D8" s="3">
         <v>15.3287</v>
       </c>
+      <c r="E8" s="3">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="F8" s="5">
         <v>-3.5162666666666671</v>
       </c>
       <c r="G8" s="5">
-        <v>-6.6445299999999996</v>
+        <v>-6.6445333333333334</v>
       </c>
       <c r="H8" s="5">
         <v>4</v>
@@ -1196,11 +1211,14 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
+      <c r="E9" s="3">
+        <v>1.52E-2</v>
+      </c>
       <c r="F9" s="5">
         <v>-40.287260000000003</v>
       </c>
       <c r="G9" s="5">
-        <v>-39.991</v>
+        <v>-39.991039999999991</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -1216,11 +1234,14 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
+      <c r="E10" s="3">
+        <v>1.4E-2</v>
+      </c>
       <c r="F10" s="5">
         <v>-7.2631857142857132</v>
       </c>
       <c r="G10" s="5">
-        <v>-6.7552700000000003</v>
+        <v>-6.7552714285714286</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
@@ -1239,6 +1260,9 @@
       <c r="D11" s="3">
         <v>10.440200000000001</v>
       </c>
+      <c r="E11" s="3">
+        <v>0.97430000000000005</v>
+      </c>
       <c r="F11" s="5">
         <v>-7.3424250000000004</v>
       </c>
@@ -1262,11 +1286,14 @@
       <c r="D12" s="3">
         <v>13.095800000000001</v>
       </c>
+      <c r="E12" s="3">
+        <v>0.99680000000000002</v>
+      </c>
       <c r="F12" s="5">
         <v>-6.0561999999999996</v>
       </c>
       <c r="G12" s="5">
-        <v>-9.2819299999999991</v>
+        <v>-9.2819333333333329</v>
       </c>
       <c r="H12" s="5">
         <v>4</v>
@@ -1282,6 +1309,9 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
+      <c r="E13" s="3">
+        <v>3.95E-2</v>
+      </c>
       <c r="F13" s="5">
         <v>8.3461600000000011</v>
       </c>
@@ -1302,11 +1332,14 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
+      <c r="E14" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
       <c r="F14" s="5">
         <v>24.881833333333329</v>
       </c>
       <c r="G14" s="5">
-        <v>11.38613</v>
+        <v>11.38613333333333</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -1322,11 +1355,14 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
+      <c r="E15" s="3">
+        <v>1.5299999999999999E-2</v>
+      </c>
       <c r="F15" s="5">
         <v>2.9358714285714278</v>
       </c>
       <c r="G15" s="5">
-        <v>-0.22674</v>
+        <v>-0.22674285714285711</v>
       </c>
       <c r="H15" s="5">
         <v>4</v>
@@ -1345,6 +1381,9 @@
       <c r="D16" s="3">
         <v>46.420699999999997</v>
       </c>
+      <c r="E16" s="3">
+        <v>0.95960000000000001</v>
+      </c>
       <c r="F16" s="5">
         <v>18.974139999999998</v>
       </c>
@@ -1365,6 +1404,9 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
+      <c r="E17" s="3">
+        <v>2.2599999999999999E-2</v>
+      </c>
       <c r="F17" s="5">
         <v>6.0019666666666671</v>
       </c>
@@ -1388,11 +1430,14 @@
       <c r="D18" s="3">
         <v>34.384700000000002</v>
       </c>
+      <c r="E18" s="3">
+        <v>0.98340000000000005</v>
+      </c>
       <c r="F18" s="5">
         <v>-12.6273</v>
       </c>
       <c r="G18" s="5">
-        <v>-13.944900000000001</v>
+        <v>-13.944875</v>
       </c>
       <c r="H18" s="5">
         <v>3</v>
@@ -1408,11 +1453,14 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
+      <c r="E19" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
       <c r="F19" s="5">
         <v>-28.71853333333333</v>
       </c>
       <c r="G19" s="5">
-        <v>-25.875800000000002</v>
+        <v>-25.875833333333329</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -1431,11 +1479,14 @@
       <c r="D20" s="3">
         <v>10.174799999999999</v>
       </c>
+      <c r="E20" s="3">
+        <v>0.99280000000000002</v>
+      </c>
       <c r="F20" s="5">
         <v>0.75889999999999969</v>
       </c>
       <c r="G20" s="5">
-        <v>-20.346499999999999</v>
+        <v>-20.346450000000001</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -1454,6 +1505,9 @@
       <c r="D21" s="3">
         <v>24.891300000000001</v>
       </c>
+      <c r="E21" s="3">
+        <v>0.98680000000000001</v>
+      </c>
       <c r="F21" s="5">
         <v>-16.91085</v>
       </c>
@@ -1474,11 +1528,14 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
+      <c r="E22" s="3">
+        <v>1.5699999999999999E-2</v>
+      </c>
       <c r="F22" s="5">
         <v>8.4318166666666681</v>
       </c>
       <c r="G22" s="5">
-        <v>4.7567170000000001</v>
+        <v>4.7567166666666667</v>
       </c>
       <c r="H22" s="5">
         <v>4</v>
@@ -1494,6 +1551,9 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
+      <c r="E23" s="3">
+        <v>3.8600000000000002E-2</v>
+      </c>
       <c r="F23" s="5">
         <v>18.019459999999999</v>
       </c>
@@ -1514,6 +1574,9 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
+      <c r="E24" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
       <c r="F24" s="5">
         <v>10.39185</v>
       </c>
@@ -1534,11 +1597,14 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
+      <c r="E25" s="3">
+        <v>3.6400000000000002E-2</v>
+      </c>
       <c r="F25" s="5">
         <v>20.2377</v>
       </c>
       <c r="G25" s="5">
-        <v>18.261970000000002</v>
+        <v>18.26196666666667</v>
       </c>
       <c r="H25" s="5">
         <v>3</v>
@@ -1554,11 +1620,14 @@
       <c r="C26" s="3">
         <v>0</v>
       </c>
+      <c r="E26" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
       <c r="F26" s="5">
         <v>-2.3019285714285709</v>
       </c>
       <c r="G26" s="5">
-        <v>-24.926100000000002</v>
+        <v>-24.92605714285714</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -1574,6 +1643,9 @@
       <c r="C27" s="3">
         <v>0</v>
       </c>
+      <c r="E27" s="3">
+        <v>1.06E-2</v>
+      </c>
       <c r="F27" s="5">
         <v>26.256399999999999</v>
       </c>
@@ -1597,11 +1669,14 @@
       <c r="D28" s="3">
         <v>43.439500000000002</v>
       </c>
+      <c r="E28" s="3">
+        <v>0.9869</v>
+      </c>
       <c r="F28" s="5">
         <v>5.5929000000000002</v>
       </c>
       <c r="G28" s="5">
-        <v>8.3388670000000005</v>
+        <v>8.338866666666668</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
@@ -1617,11 +1692,14 @@
       <c r="C29" s="3">
         <v>0</v>
       </c>
+      <c r="E29" s="3">
+        <v>1.4800000000000001E-2</v>
+      </c>
       <c r="F29" s="5">
         <v>-8.1274999999999995</v>
       </c>
       <c r="G29" s="5">
-        <v>-3.5411800000000002</v>
+        <v>-3.541175</v>
       </c>
       <c r="H29" s="5">
         <v>2</v>
@@ -1640,6 +1718,9 @@
       <c r="D30" s="3">
         <v>31.4084</v>
       </c>
+      <c r="E30" s="3">
+        <v>0.95479999999999998</v>
+      </c>
       <c r="F30" s="5">
         <v>6.1937499999999996</v>
       </c>
@@ -1660,6 +1741,9 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
+      <c r="E31" s="3">
+        <v>1E-3</v>
+      </c>
       <c r="F31" s="5">
         <v>-11.435840000000001</v>
       </c>
@@ -1680,11 +1764,14 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
+      <c r="E32" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="F32" s="5">
         <v>-16.562774999999998</v>
       </c>
       <c r="G32" s="5">
-        <v>-10.6556</v>
+        <v>-10.655575000000001</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
@@ -1700,11 +1787,14 @@
       <c r="C33" s="3">
         <v>0</v>
       </c>
+      <c r="E33" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="F33" s="5">
         <v>-36.769879999999993</v>
       </c>
       <c r="G33" s="5">
-        <v>-37.383899999999997</v>
+        <v>-37.383940000000003</v>
       </c>
       <c r="H33" s="5">
         <v>3</v>
@@ -1720,11 +1810,14 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
+      <c r="E34" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="F34" s="5">
         <v>-10.8009</v>
       </c>
       <c r="G34" s="5">
-        <v>-8.1277699999999999</v>
+        <v>-8.1277666666666661</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
@@ -1743,6 +1836,9 @@
       <c r="D35" s="3">
         <v>45.981200000000001</v>
       </c>
+      <c r="E35" s="3">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="F35" s="5">
         <v>23.5411</v>
       </c>
@@ -1766,6 +1862,9 @@
       <c r="D36" s="3">
         <v>34.6158</v>
       </c>
+      <c r="E36" s="3">
+        <v>0.95740000000000003</v>
+      </c>
       <c r="F36" s="5">
         <v>17.134266666666669</v>
       </c>
@@ -1786,6 +1885,9 @@
       <c r="C37" s="3">
         <v>0</v>
       </c>
+      <c r="E37" s="3">
+        <v>3.3E-3</v>
+      </c>
       <c r="F37" s="5">
         <v>-22.654250000000001</v>
       </c>
@@ -1806,6 +1908,9 @@
       <c r="C38" s="3">
         <v>0</v>
       </c>
+      <c r="E38" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
       <c r="F38" s="5">
         <v>15.49413333333333</v>
       </c>
@@ -1829,6 +1934,9 @@
       <c r="D39" s="3">
         <v>10.6808</v>
       </c>
+      <c r="E39" s="3">
+        <v>0.97529999999999994</v>
+      </c>
       <c r="F39" s="5">
         <v>9.2530000000000001</v>
       </c>
@@ -1852,11 +1960,14 @@
       <c r="D40" s="3">
         <v>44.607799999999997</v>
       </c>
+      <c r="E40" s="3">
+        <v>0.99219999999999997</v>
+      </c>
       <c r="F40" s="5">
         <v>-13.9727</v>
       </c>
       <c r="G40" s="5">
-        <v>-7.3008600000000001</v>
+        <v>-7.3008600000000019</v>
       </c>
       <c r="H40" s="5">
         <v>2</v>
@@ -1875,6 +1986,9 @@
       <c r="D41" s="3">
         <v>31.090900000000001</v>
       </c>
+      <c r="E41" s="3">
+        <v>0.96530000000000005</v>
+      </c>
       <c r="F41" s="5">
         <v>8.4117799999999985</v>
       </c>
@@ -1898,11 +2012,14 @@
       <c r="D42" s="3">
         <v>42.432000000000002</v>
       </c>
+      <c r="E42" s="3">
+        <v>0.99860000000000004</v>
+      </c>
       <c r="F42" s="5">
         <v>-31.240171428571429</v>
       </c>
       <c r="G42" s="5">
-        <v>-25.35</v>
+        <v>-25.349985714285719</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
@@ -1918,6 +2035,9 @@
       <c r="C43" s="3">
         <v>0</v>
       </c>
+      <c r="E43" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="F43" s="5">
         <v>-11.831633333333331</v>
       </c>
@@ -1938,6 +2058,9 @@
       <c r="C44" s="3">
         <v>0</v>
       </c>
+      <c r="E44" s="3">
+        <v>2.4899999999999999E-2</v>
+      </c>
       <c r="F44" s="5">
         <v>18.427700000000002</v>
       </c>
@@ -1958,6 +2081,9 @@
       <c r="C45" s="3">
         <v>0</v>
       </c>
+      <c r="E45" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
       <c r="F45" s="5">
         <v>16.859649999999998</v>
       </c>
@@ -1981,6 +2107,9 @@
       <c r="D46" s="3">
         <v>24.6709</v>
       </c>
+      <c r="E46" s="3">
+        <v>0.99009999999999998</v>
+      </c>
       <c r="F46" s="5">
         <v>2.4838</v>
       </c>
@@ -2001,11 +2130,14 @@
       <c r="C47" s="3">
         <v>0</v>
       </c>
+      <c r="E47" s="3">
+        <v>1.12E-2</v>
+      </c>
       <c r="F47" s="5">
         <v>-20.52803333333333</v>
       </c>
       <c r="G47" s="5">
-        <v>-16.4267</v>
+        <v>-16.426716666666671</v>
       </c>
       <c r="H47" s="5">
         <v>2</v>
@@ -2021,11 +2153,14 @@
       <c r="C48" s="3">
         <v>0</v>
       </c>
+      <c r="E48" s="3">
+        <v>0.02</v>
+      </c>
       <c r="F48" s="5">
         <v>8.2632250000000003</v>
       </c>
       <c r="G48" s="5">
-        <v>12.94608</v>
+        <v>12.946075</v>
       </c>
       <c r="H48" s="5">
         <v>2</v>
@@ -2041,11 +2176,14 @@
       <c r="C49" s="3">
         <v>0</v>
       </c>
+      <c r="E49" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
       <c r="F49" s="5">
         <v>-12.581366666666669</v>
       </c>
       <c r="G49" s="5">
-        <v>-6.9473700000000003</v>
+        <v>-6.9473666666666656</v>
       </c>
       <c r="H49" s="5">
         <v>2</v>
@@ -2064,6 +2202,9 @@
       <c r="D50" s="3">
         <v>47.610199999999999</v>
       </c>
+      <c r="E50" s="3">
+        <v>0.96319999999999995</v>
+      </c>
       <c r="F50" s="5">
         <v>12.073525</v>
       </c>
@@ -2087,11 +2228,14 @@
       <c r="D51" s="3">
         <v>6.0389999999999997</v>
       </c>
+      <c r="E51" s="3">
+        <v>0.97989999999999999</v>
+      </c>
       <c r="F51" s="5">
         <v>-10.691700000000001</v>
       </c>
       <c r="G51" s="5">
-        <v>-7.5578000000000003</v>
+        <v>-7.5577999999999994</v>
       </c>
       <c r="H51" s="5">
         <v>2</v>
@@ -2107,6 +2251,9 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
+      <c r="E52" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="F52" s="5">
         <v>25.440249999999999</v>
       </c>
@@ -2127,6 +2274,9 @@
       <c r="C53" s="3">
         <v>0</v>
       </c>
+      <c r="E53" s="3">
+        <v>2.1100000000000001E-2</v>
+      </c>
       <c r="F53" s="5">
         <v>14.620466666666671</v>
       </c>
@@ -2147,6 +2297,9 @@
       <c r="C54" s="3">
         <v>0</v>
       </c>
+      <c r="E54" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="F54" s="5">
         <v>11.8398</v>
       </c>
@@ -2167,11 +2320,14 @@
       <c r="C55" s="3">
         <v>0</v>
       </c>
+      <c r="E55" s="3">
+        <v>3.6600000000000001E-2</v>
+      </c>
       <c r="F55" s="5">
         <v>-14.27551666666667</v>
       </c>
       <c r="G55" s="5">
-        <v>-10.0227</v>
+        <v>-10.022716666666669</v>
       </c>
       <c r="H55" s="5">
         <v>2</v>
@@ -2187,6 +2343,9 @@
       <c r="C56" s="3">
         <v>0</v>
       </c>
+      <c r="E56" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
       <c r="F56" s="5">
         <v>0.39627499999999971</v>
       </c>
@@ -2210,6 +2369,9 @@
       <c r="D57" s="3">
         <v>7.9668999999999999</v>
       </c>
+      <c r="E57" s="3">
+        <v>0.99299999999999999</v>
+      </c>
       <c r="F57" s="5">
         <v>9.5961749999999988</v>
       </c>
@@ -2230,6 +2392,9 @@
       <c r="C58" s="3">
         <v>0</v>
       </c>
+      <c r="E58" s="3">
+        <v>3.2199999999999999E-2</v>
+      </c>
       <c r="F58" s="5">
         <v>-8.0347333333333335</v>
       </c>
@@ -2250,11 +2415,14 @@
       <c r="C59" s="3">
         <v>0</v>
       </c>
+      <c r="E59" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
       <c r="F59" s="5">
         <v>9.9077555555555552</v>
       </c>
       <c r="G59" s="5">
-        <v>14.036960000000001</v>
+        <v>14.03695555555556</v>
       </c>
       <c r="H59" s="5">
         <v>2</v>
@@ -2273,11 +2441,14 @@
       <c r="D60" s="3">
         <v>5.8630000000000004</v>
       </c>
+      <c r="E60" s="3">
+        <v>0.97109999999999996</v>
+      </c>
       <c r="F60" s="5">
         <v>18.910166666666669</v>
       </c>
       <c r="G60" s="5">
-        <v>22.630369999999999</v>
+        <v>22.63036666666666</v>
       </c>
       <c r="H60" s="5">
         <v>2</v>
@@ -2296,11 +2467,14 @@
       <c r="D61" s="3">
         <v>22.011099999999999</v>
       </c>
+      <c r="E61" s="3">
+        <v>0.97299999999999998</v>
+      </c>
       <c r="F61" s="5">
         <v>7.6596666666666664</v>
       </c>
       <c r="G61" s="5">
-        <v>10.39723</v>
+        <v>10.397233333333331</v>
       </c>
       <c r="H61" s="5">
         <v>2</v>
@@ -2316,11 +2490,14 @@
       <c r="C62" s="3">
         <v>0</v>
       </c>
+      <c r="E62" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
       <c r="F62" s="5">
         <v>25.424666666666671</v>
       </c>
       <c r="G62" s="5">
-        <v>4.0178330000000004</v>
+        <v>4.0178333333333329</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -2339,11 +2516,14 @@
       <c r="D63" s="3">
         <v>11.4437</v>
       </c>
+      <c r="E63" s="3">
+        <v>0.97840000000000005</v>
+      </c>
       <c r="F63" s="5">
         <v>-4.4392222222222211</v>
       </c>
       <c r="G63" s="5">
-        <v>-0.44291000000000003</v>
+        <v>-0.44291111111111081</v>
       </c>
       <c r="H63" s="5">
         <v>2</v>
@@ -2362,11 +2542,14 @@
       <c r="D64" s="3">
         <v>6.9115000000000002</v>
       </c>
+      <c r="E64" s="3">
+        <v>0.98440000000000005</v>
+      </c>
       <c r="F64" s="5">
         <v>-32.931033333333339</v>
       </c>
       <c r="G64" s="5">
-        <v>-29.181100000000001</v>
+        <v>-29.181116666666671</v>
       </c>
       <c r="H64" s="5">
         <v>2</v>
@@ -2382,6 +2565,9 @@
       <c r="C65" s="3">
         <v>0</v>
       </c>
+      <c r="E65" s="3">
+        <v>1.9699999999999999E-2</v>
+      </c>
       <c r="F65" s="5">
         <v>10.77873333333333</v>
       </c>
@@ -2405,11 +2591,14 @@
       <c r="D66" s="3">
         <v>22.475999999999999</v>
       </c>
+      <c r="E66" s="3">
+        <v>0.94469999999999998</v>
+      </c>
       <c r="F66" s="5">
         <v>-21.303462499999998</v>
       </c>
       <c r="G66" s="5">
-        <v>-14.5572</v>
+        <v>-14.557237499999999</v>
       </c>
       <c r="H66" s="5">
         <v>2</v>
@@ -2425,11 +2614,14 @@
       <c r="C67" s="3">
         <v>0</v>
       </c>
+      <c r="E67" s="3">
+        <v>1.11E-2</v>
+      </c>
       <c r="F67" s="5">
         <v>22.384650000000001</v>
       </c>
       <c r="G67" s="5">
-        <v>9.4295170000000006</v>
+        <v>9.4295166666666663</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -2448,11 +2640,14 @@
       <c r="D68" s="3">
         <v>31.462</v>
       </c>
+      <c r="E68" s="3">
+        <v>0.93769999999999998</v>
+      </c>
       <c r="F68" s="5">
         <v>-17.668949999999999</v>
       </c>
       <c r="G68" s="5">
-        <v>-12.4863</v>
+        <v>-12.486274999999999</v>
       </c>
       <c r="H68" s="5">
         <v>2</v>
@@ -2468,6 +2663,9 @@
       <c r="C69" s="3">
         <v>0</v>
       </c>
+      <c r="E69" s="3">
+        <v>2.2100000000000002E-2</v>
+      </c>
       <c r="F69" s="5">
         <v>0.83810000000000073</v>
       </c>
@@ -2488,11 +2686,14 @@
       <c r="C70" s="3">
         <v>0</v>
       </c>
+      <c r="E70" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
       <c r="F70" s="5">
         <v>18.040900000000001</v>
       </c>
       <c r="G70" s="5">
-        <v>17.762630000000001</v>
+        <v>17.76263333333333</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
@@ -2508,11 +2709,14 @@
       <c r="C71" s="3">
         <v>0</v>
       </c>
+      <c r="E71" s="3">
+        <v>2.6599999999999999E-2</v>
+      </c>
       <c r="F71" s="5">
         <v>-6.1078124999999996</v>
       </c>
       <c r="G71" s="5">
-        <v>-2.2895400000000001</v>
+        <v>-2.2895374999999998</v>
       </c>
       <c r="H71" s="5">
         <v>2</v>
@@ -2528,11 +2732,14 @@
       <c r="C72" s="3">
         <v>0</v>
       </c>
+      <c r="E72" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
       <c r="F72" s="5">
         <v>1.636780000000001</v>
       </c>
       <c r="G72" s="5">
-        <v>0.89573999999999998</v>
+        <v>0.89573999999999931</v>
       </c>
       <c r="H72" s="5">
         <v>3</v>
@@ -2551,6 +2758,9 @@
       <c r="D73" s="3">
         <v>7.7450999999999999</v>
       </c>
+      <c r="E73" s="3">
+        <v>0.97670000000000001</v>
+      </c>
       <c r="F73" s="5">
         <v>16.159833333333339</v>
       </c>
@@ -2574,11 +2784,14 @@
       <c r="D74" s="3">
         <v>40.417900000000003</v>
       </c>
+      <c r="E74" s="3">
+        <v>0.95960000000000001</v>
+      </c>
       <c r="F74" s="5">
         <v>-9.0095833333333335</v>
       </c>
       <c r="G74" s="5">
-        <v>-13.5435</v>
+        <v>-13.543533333333331</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
@@ -2594,11 +2807,14 @@
       <c r="C75" s="3">
         <v>0</v>
       </c>
+      <c r="E75" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
       <c r="F75" s="5">
         <v>10.805466666666669</v>
       </c>
       <c r="G75" s="5">
-        <v>9.5056329999999996</v>
+        <v>9.5056333333333338</v>
       </c>
       <c r="H75" s="5">
         <v>1</v>
@@ -2614,11 +2830,14 @@
       <c r="C76" s="3">
         <v>0</v>
       </c>
+      <c r="E76" s="3">
+        <v>3.3E-3</v>
+      </c>
       <c r="F76" s="5">
         <v>19.36866666666667</v>
       </c>
       <c r="G76" s="5">
-        <v>22.271830000000001</v>
+        <v>22.27183333333333</v>
       </c>
       <c r="H76" s="5">
         <v>2</v>
@@ -2637,6 +2856,9 @@
       <c r="D77" s="3">
         <v>47.201099999999997</v>
       </c>
+      <c r="E77" s="3">
+        <v>0.95930000000000004</v>
+      </c>
       <c r="F77" s="5">
         <v>-34.984683333333329</v>
       </c>
@@ -2657,6 +2879,9 @@
       <c r="C78" s="3">
         <v>0</v>
       </c>
+      <c r="E78" s="3">
+        <v>3.6700000000000003E-2</v>
+      </c>
       <c r="F78" s="5">
         <v>-0.19605999999999971</v>
       </c>
@@ -2680,6 +2905,9 @@
       <c r="D79" s="3">
         <v>14.6813</v>
       </c>
+      <c r="E79" s="3">
+        <v>0.95409999999999995</v>
+      </c>
       <c r="F79" s="5">
         <v>17.776479999999999</v>
       </c>
@@ -2700,6 +2928,9 @@
       <c r="C80" s="3">
         <v>0</v>
       </c>
+      <c r="E80" s="3">
+        <v>1.43E-2</v>
+      </c>
       <c r="F80" s="5">
         <v>-2.966320000000001</v>
       </c>
@@ -2720,6 +2951,9 @@
       <c r="C81" s="3">
         <v>0</v>
       </c>
+      <c r="E81" s="3">
+        <v>4.8800000000000003E-2</v>
+      </c>
       <c r="F81" s="5">
         <v>24.69993333333333</v>
       </c>
@@ -2743,11 +2977,14 @@
       <c r="D82" s="3">
         <v>4.5176999999999996</v>
       </c>
+      <c r="E82" s="3">
+        <v>0.95020000000000004</v>
+      </c>
       <c r="F82" s="5">
         <v>19.446100000000001</v>
       </c>
       <c r="G82" s="5">
-        <v>0.65893999999999997</v>
+        <v>0.65894000000000008</v>
       </c>
       <c r="H82" s="5">
         <v>0</v>
@@ -2766,11 +3003,14 @@
       <c r="D83" s="3">
         <v>15.5669</v>
       </c>
+      <c r="E83" s="3">
+        <v>0.98719999999999997</v>
+      </c>
       <c r="F83" s="5">
         <v>16.89</v>
       </c>
       <c r="G83" s="5">
-        <v>20.39677</v>
+        <v>20.396766666666661</v>
       </c>
       <c r="H83" s="5">
         <v>2</v>
@@ -2789,6 +3029,9 @@
       <c r="D84" s="3">
         <v>9.3971</v>
       </c>
+      <c r="E84" s="3">
+        <v>0.98240000000000005</v>
+      </c>
       <c r="F84" s="5">
         <v>1.3304599999999991</v>
       </c>
@@ -2809,11 +3052,14 @@
       <c r="C85" s="3">
         <v>0</v>
       </c>
+      <c r="E85" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
       <c r="F85" s="5">
         <v>-4.7504666666666662</v>
       </c>
       <c r="G85" s="5">
-        <v>-1.6988700000000001</v>
+        <v>-1.698866666666667</v>
       </c>
       <c r="H85" s="5">
         <v>2</v>
@@ -2829,11 +3075,14 @@
       <c r="C86" s="3">
         <v>0</v>
       </c>
+      <c r="E86" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
       <c r="F86" s="5">
         <v>-11.505966666666669</v>
       </c>
       <c r="G86" s="5">
-        <v>-8.6394699999999993</v>
+        <v>-8.6394666666666673</v>
       </c>
       <c r="H86" s="5">
         <v>2</v>
@@ -2852,6 +3101,9 @@
       <c r="D87" s="3">
         <v>9.6728000000000005</v>
       </c>
+      <c r="E87" s="3">
+        <v>0.99390000000000001</v>
+      </c>
       <c r="F87" s="5">
         <v>4.6149600000000008</v>
       </c>
@@ -2872,11 +3124,14 @@
       <c r="C88" s="3">
         <v>0</v>
       </c>
+      <c r="E88" s="3">
+        <v>1.18E-2</v>
+      </c>
       <c r="F88" s="5">
         <v>-12.83935</v>
       </c>
       <c r="G88" s="5">
-        <v>-9.2578700000000005</v>
+        <v>-9.2578666666666667</v>
       </c>
       <c r="H88" s="5">
         <v>2</v>
@@ -2892,11 +3147,14 @@
       <c r="C89" s="3">
         <v>0</v>
       </c>
+      <c r="E89" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
       <c r="F89" s="5">
         <v>26.057774999999999</v>
       </c>
       <c r="G89" s="5">
-        <v>17.91948</v>
+        <v>17.919474999999998</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -2915,6 +3173,9 @@
       <c r="D90" s="3">
         <v>36.0015</v>
       </c>
+      <c r="E90" s="3">
+        <v>0.99050000000000005</v>
+      </c>
       <c r="F90" s="5">
         <v>22.106359999999999</v>
       </c>
@@ -2935,6 +3196,9 @@
       <c r="C91" s="3">
         <v>0</v>
       </c>
+      <c r="E91" s="3">
+        <v>1.55E-2</v>
+      </c>
       <c r="F91" s="5">
         <v>2.9934666666666661</v>
       </c>
@@ -2955,11 +3219,14 @@
       <c r="C92" s="3">
         <v>0</v>
       </c>
+      <c r="E92" s="3">
+        <v>3.0800000000000001E-2</v>
+      </c>
       <c r="F92" s="5">
         <v>0.31660000000000071</v>
       </c>
       <c r="G92" s="5">
-        <v>-15.543699999999999</v>
+        <v>-15.543675</v>
       </c>
       <c r="H92" s="5">
         <v>1</v>
@@ -2975,11 +3242,14 @@
       <c r="C93" s="3">
         <v>0</v>
       </c>
+      <c r="E93" s="3">
+        <v>3.0099999999999998E-2</v>
+      </c>
       <c r="F93" s="5">
         <v>-3.8006250000000001</v>
       </c>
       <c r="G93" s="5">
-        <v>-0.52347999999999995</v>
+        <v>-0.52347500000000124</v>
       </c>
       <c r="H93" s="5">
         <v>2</v>
@@ -2995,11 +3265,14 @@
       <c r="C94" s="3">
         <v>0</v>
       </c>
+      <c r="E94" s="3">
+        <v>3.9E-2</v>
+      </c>
       <c r="F94" s="5">
         <v>18.712125</v>
       </c>
       <c r="G94" s="5">
-        <v>17.230129999999999</v>
+        <v>17.230125000000001</v>
       </c>
       <c r="H94" s="5">
         <v>3</v>
@@ -3018,6 +3291,9 @@
       <c r="D95" s="3">
         <v>2.9544000000000001</v>
       </c>
+      <c r="E95" s="3">
+        <v>0.97599999999999998</v>
+      </c>
       <c r="F95" s="5">
         <v>2.7558750000000001</v>
       </c>
@@ -3038,6 +3314,9 @@
       <c r="C96" s="3">
         <v>0</v>
       </c>
+      <c r="E96" s="3">
+        <v>1.6299999999999999E-2</v>
+      </c>
       <c r="F96" s="5">
         <v>20.015059999999998</v>
       </c>
@@ -3058,6 +3337,9 @@
       <c r="C97" s="3">
         <v>0</v>
       </c>
+      <c r="E97" s="3">
+        <v>1.9300000000000001E-2</v>
+      </c>
       <c r="F97" s="5">
         <v>12.14296</v>
       </c>
@@ -3078,11 +3360,14 @@
       <c r="C98" s="3">
         <v>0</v>
       </c>
+      <c r="E98" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
       <c r="F98" s="5">
         <v>-68.623279999999994</v>
       </c>
       <c r="G98" s="5">
-        <v>-63.166200000000003</v>
+        <v>-63.166159999999998</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -3098,6 +3383,9 @@
       <c r="C99" s="3">
         <v>0</v>
       </c>
+      <c r="E99" s="3">
+        <v>2.9899999999999999E-2</v>
+      </c>
       <c r="F99" s="5">
         <v>24.551116666666669</v>
       </c>
@@ -3118,6 +3406,9 @@
       <c r="C100" s="3">
         <v>0</v>
       </c>
+      <c r="E100" s="3">
+        <v>2.1700000000000001E-2</v>
+      </c>
       <c r="F100" s="5">
         <v>19.25973333333333</v>
       </c>
@@ -3138,6 +3429,9 @@
       <c r="C101" s="3">
         <v>0</v>
       </c>
+      <c r="E101" s="3">
+        <v>1.67E-2</v>
+      </c>
       <c r="F101" s="5">
         <v>-5.27902</v>
       </c>
@@ -3161,11 +3455,14 @@
       <c r="D102" s="3">
         <v>6.6695000000000002</v>
       </c>
+      <c r="E102" s="3">
+        <v>0.97450000000000003</v>
+      </c>
       <c r="F102" s="5">
         <v>2.7201</v>
       </c>
       <c r="G102" s="5">
-        <v>5.4298669999999998</v>
+        <v>5.4298666666666664</v>
       </c>
       <c r="H102" s="5">
         <v>2</v>
@@ -3181,11 +3478,14 @@
       <c r="C103" s="3">
         <v>0</v>
       </c>
+      <c r="E103" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="F103" s="5">
         <v>20.960333333333331</v>
       </c>
       <c r="G103" s="5">
-        <v>24.04823</v>
+        <v>24.048233333333329</v>
       </c>
       <c r="H103" s="5">
         <v>2</v>
@@ -3198,6 +3498,9 @@
       <c r="B104" s="8">
         <v>20180311000432</v>
       </c>
+      <c r="E104" s="3">
+        <v>0.96030000000000004</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -3206,6 +3509,9 @@
       <c r="B105" s="8">
         <v>20180708000024</v>
       </c>
+      <c r="E105" s="3">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -3214,6 +3520,9 @@
       <c r="B106" s="8">
         <v>20181015001677</v>
       </c>
+      <c r="E106" s="3">
+        <v>0.62829999999999997</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -3222,6 +3531,9 @@
       <c r="B107" s="8">
         <v>20190105000694</v>
       </c>
+      <c r="E107" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -3230,6 +3542,9 @@
       <c r="B108" s="8">
         <v>20190108002459</v>
       </c>
+      <c r="E108" s="3">
+        <v>0.1118</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -3238,6 +3553,9 @@
       <c r="B109" s="8">
         <v>20190519000853</v>
       </c>
+      <c r="E109" s="3">
+        <v>0.85229999999999995</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -3246,6 +3564,9 @@
       <c r="B110" s="8">
         <v>20190526000209</v>
       </c>
+      <c r="E110" s="3">
+        <v>0.1676</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -3254,6 +3575,9 @@
       <c r="B111" s="8">
         <v>20190701002502</v>
       </c>
+      <c r="E111" s="3">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -3262,413 +3586,569 @@
       <c r="B112" s="8">
         <v>20190716000013</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E112" s="3">
+        <v>0.25059999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="8">
         <v>20190717001385</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E113" s="3">
+        <v>0.81279999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="8">
         <v>20190727000556</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E114" s="3">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="8">
         <v>20190803000014</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E115" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
       <c r="B116" s="8">
         <v>20190901000442</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E116" s="3">
+        <v>0.80920000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>125</v>
       </c>
       <c r="B117" s="8">
         <v>20190903000373</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E117" s="3">
+        <v>0.20979999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="8">
         <v>20190904002299</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E118" s="3">
+        <v>0.31119999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="8">
         <v>20190906001283</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E119" s="3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="8">
         <v>20190917002094</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E120" s="3">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="8">
         <v>20190923002580</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E121" s="3">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>130</v>
       </c>
       <c r="B122" s="8">
         <v>20191003000352</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E122" s="3">
+        <v>9.0800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>131</v>
       </c>
       <c r="B123" s="8">
         <v>20191004001025</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E123" s="3">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>132</v>
       </c>
       <c r="B124" s="8">
         <v>20191027000468</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E124" s="3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="8">
         <v>20191028002738</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E125" s="3">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
       <c r="B126" s="8">
         <v>20191024001280</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E126" s="3">
+        <v>0.69540000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>135</v>
       </c>
       <c r="B127" s="8">
         <v>20191030001526</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E127" s="3">
+        <v>0.85240000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>136</v>
       </c>
       <c r="B128" s="8">
         <v>20191111002510</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E128" s="3">
+        <v>0.95469999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
       <c r="B129" s="8">
         <v>20191126002590</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E129" s="3">
+        <v>0.40210000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="8">
         <v>20191127002176</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E130" s="3">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>139</v>
       </c>
       <c r="B131" s="8">
         <v>20191208000592</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E131" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>140</v>
       </c>
       <c r="B132" s="8">
         <v>20191224000008</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E132" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="8">
         <v>20191228000237</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E133" s="3">
+        <v>0.28739999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>142</v>
       </c>
       <c r="B134" s="13">
         <v>20160413000006</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E134" s="3">
+        <v>0.94869999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>143</v>
       </c>
       <c r="B135" s="13">
         <v>20161215001667</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E135" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>144</v>
       </c>
       <c r="B136" s="13">
         <v>20200112000228</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E136" s="3">
+        <v>0.25819999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>145</v>
       </c>
       <c r="B137" s="13">
         <v>20200101000392</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E137" s="3">
+        <v>0.87139999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>146</v>
       </c>
       <c r="B138" s="13">
         <v>20201130003288</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E138" s="3">
+        <v>0.70209999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>147</v>
       </c>
       <c r="B139" s="13">
         <v>20201203002778</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E139" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>148</v>
       </c>
       <c r="B140" s="13">
         <v>20201217002368</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E140" s="3">
+        <v>0.48349999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>149</v>
       </c>
       <c r="B141" s="13">
         <v>20200403000012</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E141" s="3">
+        <v>0.28050000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>150</v>
       </c>
       <c r="B142" s="13">
         <v>20200814000015</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E142" s="3">
+        <v>0.14610000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>151</v>
       </c>
       <c r="B143" s="13">
         <v>20200412000331</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E143" s="3">
+        <v>0.53220000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>152</v>
       </c>
       <c r="B144" s="13">
         <v>20200711001264</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E144" s="3">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>153</v>
       </c>
       <c r="B145" s="13">
         <v>20200411000014</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E145" s="3">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>154</v>
       </c>
       <c r="B146" s="13">
         <v>20200214000572</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E146" s="3">
+        <v>0.64159999999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>155</v>
       </c>
       <c r="B147" s="13">
         <v>20200124000041</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E147" s="3">
+        <v>0.56340000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>156</v>
       </c>
       <c r="B148" s="13">
         <v>20200613001086</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E148" s="3">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>157</v>
       </c>
       <c r="B149" s="13">
         <v>20200531000253</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E149" s="3">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>158</v>
       </c>
       <c r="B150" s="13">
         <v>20201220000155</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E150" s="3">
+        <v>0.7923</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>159</v>
       </c>
       <c r="B151" s="13">
         <v>20200609001016</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E151" s="3">
+        <v>0.95420000000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>160</v>
       </c>
       <c r="B152" s="13">
         <v>20200409001101</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E152" s="3">
+        <v>0.60760000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>161</v>
       </c>
       <c r="B153" s="13">
         <v>20200118000372</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E153" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>162</v>
       </c>
       <c r="B154" s="13">
         <v>20201023001238</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E154" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>163</v>
       </c>
       <c r="B155" s="13">
         <v>20201109000009</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E155" s="3">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>164</v>
       </c>
       <c r="B156" s="13">
         <v>20201212001420</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E156" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>165</v>
       </c>
       <c r="B157" s="13">
         <v>20201129000299</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E157" s="3">
+        <v>0.13139999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>166</v>
       </c>
       <c r="B158" s="13">
         <v>20200301000025</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E158" s="3">
+        <v>0.53910000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>167</v>
       </c>
       <c r="B159" s="13">
         <v>20200306000927</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E159" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>168</v>
       </c>
       <c r="B160" s="13">
         <v>20201009003102</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E160" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>169</v>
       </c>
       <c r="B161" s="13">
         <v>20200410001952</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E161" s="3">
+        <v>0.19670000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>170</v>
       </c>
       <c r="B162" s="13">
         <v>20200218000582</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E162" s="3">
+        <v>0.26569999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>171</v>
       </c>
       <c r="B163" s="13">
         <v>20200821002584</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.1103</v>
       </c>
     </row>
   </sheetData>
